--- a/CProgram.xlsx
+++ b/CProgram.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="算法" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="指针" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Double a = 5; printf("%d",a)结果为0</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>1.函数指针</t>
+  </si>
+  <si>
+    <t>int a = 5; int *p = &amp;a //定义的同时初始化</t>
+  </si>
+  <si>
+    <t>int a = 5; int *p; p = &amp;a; *p=123; //分开定义,a的值已经变为123</t>
+  </si>
+  <si>
+    <t>int a[3] = {1,2,3}; int *p; p = &amp;a[0]; printf("%d\n", *p); 打印出来是1</t>
+  </si>
+  <si>
+    <t>int a[3] = {1,2,3}; int *p; p = a; printf("%d\n", *p); 打印出来是1，等同于上面一句的赋值</t>
+  </si>
+  <si>
+    <t>*++p,等同于*(++p)</t>
+  </si>
+  <si>
+    <t>*p++,等同于*(p++), 优先级++比*高,但是要注意++在后面所以是运算后指针再加1</t>
+  </si>
+  <si>
+    <t>int a[3] = {1,12,23}; int *p; p = a; printf("%d\n", *p++); //打印出来是1, printf("%d\n", *p); //打印出来是12</t>
+  </si>
+  <si>
+    <t>int a[3] = {1,12,23}; int *p; p = a; printf("%d\n", ++(*p)); //打印出来是2</t>
+  </si>
+  <si>
+    <t>int a[3] = {1,12,23}; int *p; p = a; printf("%d\n", (*p)++); //打印出来是1</t>
+  </si>
+  <si>
+    <t>int a = 5; void *p; p = &amp;a; printf("%d\n", *(int*)p); //void指针，取值的时候要转换为原来的类型</t>
   </si>
 </sst>
 </file>
@@ -2629,6 +2659,53 @@
         <a:xfrm>
           <a:off x="4876800" y="34861500"/>
           <a:ext cx="3086100" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38100000"/>
+          <a:ext cx="5514975" cy="4029075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
@@ -2958,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
@@ -3008,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A152"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
@@ -3089,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3104,4 +3181,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>